--- a/target/test-classes/testdata.xlsx
+++ b/target/test-classes/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sravani_madasu_capgemini_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLEKHANA\IdeaProjects\cucumber1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32D69579-E238-4308-A081-3BF3543828A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C052D50-935C-413E-BFD4-3E16C1A73C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4CC90BFB-9949-477D-B756-30DADA1FDB9D}"/>
+    <workbookView xWindow="3240" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{4CC90BFB-9949-477D-B756-30DADA1FDB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,31 +36,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tc_Name</t>
   </si>
   <si>
-    <t>verify that user able to search the product</t>
-  </si>
-  <si>
-    <t>SearchProduct</t>
-  </si>
-  <si>
-    <t>mobiles</t>
+    <t>Verify that the user can select a product from the search results.</t>
+  </si>
+  <si>
+    <t>The Ordinary Serum</t>
+  </si>
+  <si>
+    <t>Verify that the selected product is displayed on the product detail page with all the relevant information</t>
+  </si>
+  <si>
+    <t>verify that user display product</t>
+  </si>
+  <si>
+    <t>verify that no results found</t>
+  </si>
+  <si>
+    <t>Amazon cart</t>
+  </si>
+  <si>
+    <t>Check if the add to cart is accessible(Scenario outline)</t>
+  </si>
+  <si>
+    <t>No results found</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>smart watch noise smart watch for women</t>
+  </si>
+  <si>
+    <t>Lakme lipstick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,8 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,36 +443,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD49BC75-9106-45BE-97C7-B2B930371A82}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="69" customWidth="1"/>
-    <col min="2" max="2" width="48.453125" customWidth="1"/>
-    <col min="4" max="4" width="36.08984375" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/test-classes/testdata.xlsx
+++ b/target/test-classes/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLEKHANA\IdeaProjects\cucumber1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C052D50-935C-413E-BFD4-3E16C1A73C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991499EF-BF1B-4958-9015-1B61C063156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{4CC90BFB-9949-477D-B756-30DADA1FDB9D}"/>
   </bookViews>
@@ -41,44 +41,44 @@
     <t>Tc_Name</t>
   </si>
   <si>
-    <t>Verify that the user can select a product from the search results.</t>
-  </si>
-  <si>
     <t>The Ordinary Serum</t>
   </si>
   <si>
-    <t>Verify that the selected product is displayed on the product detail page with all the relevant information</t>
-  </si>
-  <si>
     <t>verify that user display product</t>
   </si>
   <si>
     <t>verify that no results found</t>
   </si>
   <si>
-    <t>Amazon cart</t>
-  </si>
-  <si>
-    <t>Check if the add to cart is accessible(Scenario outline)</t>
-  </si>
-  <si>
-    <t>No results found</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>smart watch noise smart watch for women</t>
-  </si>
-  <si>
     <t>Lakme lipstick</t>
+  </si>
+  <si>
+    <t>SearchProduct</t>
+  </si>
+  <si>
+    <t>Verify that the selected product is displayed on the product detail page</t>
+  </si>
+  <si>
+    <t>Verify that the user can able to search a product</t>
+  </si>
+  <si>
+    <t>Check if the add to cart is accessible</t>
+  </si>
+  <si>
+    <t>add to cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smart watch </t>
+  </si>
+  <si>
+    <t>,/&lt;?Cz.,c,mz,;;;'32424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,7 +87,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,7 +101,9 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,15 +126,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +453,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,51 +463,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
+      <c r="A5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
+      <c r="A6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
